--- a/documents_bin/目录模板文件.xlsx
+++ b/documents_bin/目录模板文件.xlsx
@@ -94,7 +94,7 @@
     </r>
   </si>
   <si>
-    <t>图纸(文件)目录</t>
+    <t>第  图册图纸(文件)目录</t>
   </si>
   <si>
     <t>文件编号:</t>
@@ -1422,7 +1422,7 @@
   <dimension ref="A1:J210"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" showRuler="0" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.1" customHeight="1"/>
